--- a/data/Output/くつろぎ屋/店舗情報まとめ.xlsx
+++ b/data/Output/くつろぎ屋/店舗情報まとめ.xlsx
@@ -1563,7 +1563,7 @@
         <v>2040.451807228916</v>
       </c>
       <c r="H2" t="n">
-        <v>846787.5</v>
+        <v>1020.225903614458</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1589,7 +1589,7 @@
         <v>3310.473372781065</v>
       </c>
       <c r="H3" t="n">
-        <v>372980</v>
+        <v>1103.491124260355</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1615,7 +1615,7 @@
         <v>3681.746031746032</v>
       </c>
       <c r="H4" t="n">
-        <v>231950</v>
+        <v>920.436507936508</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1641,7 +1641,7 @@
         <v>5096.946564885497</v>
       </c>
       <c r="H5" t="n">
-        <v>133540</v>
+        <v>1019.389312977099</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1667,7 +1667,7 @@
         <v>5645.913978494624</v>
       </c>
       <c r="H6" t="n">
-        <v>87511.66666666667</v>
+        <v>940.9856630824373</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1693,7 +1693,7 @@
         <v>15.92592592592593</v>
       </c>
       <c r="H7" t="n">
-        <v>860</v>
+        <v>15.92592592592593</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1743,7 +1743,7 @@
         <v>4457.254901960784</v>
       </c>
       <c r="H9" t="n">
-        <v>28415</v>
+        <v>557.156862745098</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1769,7 +1769,7 @@
         <v>7125.510204081633</v>
       </c>
       <c r="H10" t="n">
-        <v>49878.57142857143</v>
+        <v>1017.930029154519</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1795,7 +1795,7 @@
         <v>6578.095238095239</v>
       </c>
       <c r="H11" t="n">
-        <v>30697.77777777778</v>
+        <v>730.899470899471</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1821,7 +1821,7 @@
         <v>5694.545454545455</v>
       </c>
       <c r="H12" t="n">
-        <v>18792</v>
+        <v>569.4545454545455</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1847,7 +1847,7 @@
         <v>2496.428571428572</v>
       </c>
       <c r="H13" t="n">
-        <v>6354.545454545455</v>
+        <v>226.948051948052</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1873,7 +1873,7 @@
         <v>1960</v>
       </c>
       <c r="H14" t="n">
-        <v>23520</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1899,7 +1899,7 @@
         <v>2265.894736842105</v>
       </c>
       <c r="H15" t="n">
-        <v>3587.666666666667</v>
+        <v>188.8245614035088</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1925,7 +1925,7 @@
         <v>4943.333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>5932</v>
+        <v>329.5555555555555</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1951,7 +1951,7 @@
         <v>4290</v>
       </c>
       <c r="H17" t="n">
-        <v>3677.142857142857</v>
+        <v>306.4285714285714</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1977,7 +1977,7 @@
         <v>18112.72727272727</v>
       </c>
       <c r="H18" t="n">
-        <v>15326.15384615385</v>
+        <v>1393.286713286713</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2003,7 +2003,7 @@
         <v>1786</v>
       </c>
       <c r="H19" t="n">
-        <v>1116.25</v>
+        <v>111.625</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2029,7 +2029,7 @@
         <v>3264</v>
       </c>
       <c r="H20" t="n">
-        <v>1632</v>
+        <v>163.2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2055,7 +2055,7 @@
         <v>1688</v>
       </c>
       <c r="H21" t="n">
-        <v>8440</v>
+        <v>844</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2107,7 +2107,7 @@
         <v>2757.5</v>
       </c>
       <c r="H23" t="n">
-        <v>5515</v>
+        <v>689.375</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2185,7 +2185,7 @@
         <v>10366.66666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>2827.272727272727</v>
+        <v>471.2121212121212</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2211,7 +2211,7 @@
         <v>7772.8</v>
       </c>
       <c r="H27" t="n">
-        <v>1388</v>
+        <v>277.6</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2263,7 +2263,7 @@
         <v>76000</v>
       </c>
       <c r="H29" t="n">
-        <v>9500</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2367,7 +2367,7 @@
         <v>-3446.666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>5170</v>
+        <v>1723.333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2393,7 +2393,7 @@
         <v>2446.666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>2446.666666666667</v>
+        <v>815.5555555555555</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2523,7 +2523,7 @@
         <v>16535</v>
       </c>
       <c r="H39" t="n">
-        <v>1574.761904761905</v>
+        <v>787.3809523809524</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2549,7 +2549,7 @@
         <v>18130</v>
       </c>
       <c r="H40" t="n">
-        <v>4532.5</v>
+        <v>2266.25</v>
       </c>
     </row>
     <row r="41" spans="1:8">
